--- a/data/Offer.xlsx
+++ b/data/Offer.xlsx
@@ -39,13 +39,13 @@
     <t>post</t>
   </si>
   <si>
-    <t>{"applyId": "a695a05d-4244-4672-b165-d2c8021eae1b","applicantId":"f36f2a64-362b-4e9b-a8b9-68b2525154d7","offerTypeID": "df5826dc-6e78-4cf4-a4fd-fc1be1f88b2e","name": "test01"}</t>
+    <t>{"applyId":"","applicantId":"","offerTypeID":"","name": "test01"}</t>
   </si>
   <si>
     <t>创建Offer成功</t>
   </si>
   <si>
-    <t>{"applyId": "a695a05d-4244-4672-b165-d2c8021eae1b","applicantId":"f36f2a64-362b-4e9b-a8b9-68b2525154d7","offerTypeID": "df5826dc-6e78-4cf4-a4fd-fc1be1f88b2e","name": "test02"}</t>
+    <t>{"applyId":"","applicantId":"","offerTypeID":"","name": "test02"}</t>
   </si>
   <si>
     <t>名字</t>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1056,7 +1056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="86.4" spans="1:5">
+    <row r="2" ht="43.2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="86.4" spans="1:5">
+    <row r="3" ht="43.2" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
